--- a/objetivos_e_refs.xlsx
+++ b/objetivos_e_refs.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24026"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24131"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\fj428\Documents\GitHub\metaheuristicas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{04B3FA00-0DE8-4318-BCCB-7D27BFF7E09E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3B6F2601-9ACC-4F71-B69E-CCCED1E7CDB5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -183,7 +183,29 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="3">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="6" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="6" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="6" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -519,8 +541,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0C8336E0-137C-44F2-8A9A-8ECF625F53D4}">
   <dimension ref="A1:L72"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="H8" sqref="H8"/>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="C72" sqref="C72"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -578,16 +600,16 @@
         <v>1</v>
       </c>
       <c r="C3">
-        <v>3671</v>
+        <v>2751</v>
       </c>
       <c r="D3">
-        <v>2807</v>
+        <v>1405</v>
       </c>
       <c r="E3">
-        <v>2577</v>
+        <v>997</v>
       </c>
       <c r="F3">
-        <v>2056</v>
+        <v>1064</v>
       </c>
       <c r="I3">
         <v>1936</v>
@@ -608,16 +630,16 @@
         <v>2</v>
       </c>
       <c r="C4">
-        <v>2401</v>
+        <v>1653</v>
       </c>
       <c r="D4">
-        <v>2155</v>
+        <v>1149</v>
       </c>
       <c r="E4">
-        <v>2446</v>
+        <v>927</v>
       </c>
       <c r="F4">
-        <v>2362</v>
+        <v>1546</v>
       </c>
       <c r="I4">
         <v>1042</v>
@@ -638,16 +660,16 @@
         <v>3</v>
       </c>
       <c r="C5">
-        <v>3170</v>
+        <v>2493</v>
       </c>
       <c r="D5">
-        <v>2871</v>
+        <v>1219</v>
       </c>
       <c r="E5">
-        <v>2300</v>
+        <v>987</v>
       </c>
       <c r="F5">
-        <v>2008</v>
+        <v>1239</v>
       </c>
       <c r="I5">
         <v>1586</v>
@@ -668,16 +690,16 @@
         <v>4</v>
       </c>
       <c r="C6">
-        <v>3579</v>
+        <v>3191</v>
       </c>
       <c r="D6">
-        <v>3154</v>
+        <v>1897</v>
       </c>
       <c r="E6">
-        <v>2378</v>
+        <v>1043</v>
       </c>
       <c r="F6">
-        <v>1965</v>
+        <v>1065</v>
       </c>
       <c r="I6">
         <v>2139</v>
@@ -698,16 +720,16 @@
         <v>5</v>
       </c>
       <c r="C7">
-        <v>2073</v>
+        <v>1581</v>
       </c>
       <c r="D7">
-        <v>1655</v>
+        <v>1261</v>
       </c>
       <c r="E7">
-        <v>1553</v>
+        <v>635.00000000000011</v>
       </c>
       <c r="F7">
-        <v>1369</v>
+        <v>756</v>
       </c>
       <c r="I7">
         <v>1187</v>
@@ -728,16 +750,16 @@
         <v>6</v>
       </c>
       <c r="C8">
-        <v>2147</v>
+        <v>2153</v>
       </c>
       <c r="D8">
-        <v>2302</v>
+        <v>1214</v>
       </c>
       <c r="E8">
-        <v>1637</v>
+        <v>945</v>
       </c>
       <c r="F8">
-        <v>1427</v>
+        <v>1202</v>
       </c>
       <c r="I8">
         <v>1521</v>
@@ -758,16 +780,16 @@
         <v>7</v>
       </c>
       <c r="C9">
-        <v>3360</v>
+        <v>2978</v>
       </c>
       <c r="D9">
-        <v>2371</v>
+        <v>1826</v>
       </c>
       <c r="E9">
-        <v>1829</v>
+        <v>1238</v>
       </c>
       <c r="F9">
-        <v>1805</v>
+        <v>1380</v>
       </c>
       <c r="I9">
         <v>2170</v>
@@ -788,16 +810,16 @@
         <v>8</v>
       </c>
       <c r="C10">
-        <v>2422</v>
+        <v>2261</v>
       </c>
       <c r="D10">
-        <v>1769</v>
+        <v>1423</v>
       </c>
       <c r="E10">
-        <v>1666</v>
+        <v>806</v>
       </c>
       <c r="F10">
-        <v>1370</v>
+        <v>806</v>
       </c>
       <c r="I10">
         <v>1720</v>
@@ -818,16 +840,16 @@
         <v>9</v>
       </c>
       <c r="C11">
-        <v>2393</v>
+        <v>1973</v>
       </c>
       <c r="D11">
-        <v>1455</v>
+        <v>1136</v>
       </c>
       <c r="E11">
-        <v>1336</v>
+        <v>751.99999999999989</v>
       </c>
       <c r="F11">
-        <v>1370</v>
+        <v>614</v>
       </c>
       <c r="I11">
         <v>1574</v>
@@ -848,16 +870,16 @@
         <v>10</v>
       </c>
       <c r="C12">
-        <v>3116</v>
+        <v>2165</v>
       </c>
       <c r="D12">
-        <v>2062</v>
+        <v>1632</v>
       </c>
       <c r="E12">
-        <v>2092</v>
+        <v>915</v>
       </c>
       <c r="F12">
-        <v>1756</v>
+        <v>881.00000000000011</v>
       </c>
       <c r="I12">
         <v>1869</v>
@@ -880,16 +902,16 @@
         <v>1</v>
       </c>
       <c r="C13">
-        <v>7060</v>
+        <v>4970</v>
       </c>
       <c r="D13">
-        <v>6049</v>
+        <v>3161</v>
       </c>
       <c r="E13">
-        <v>6106</v>
+        <v>3747</v>
       </c>
       <c r="F13">
-        <v>6450</v>
+        <v>5053</v>
       </c>
       <c r="I13">
         <v>4431</v>
@@ -910,16 +932,16 @@
         <v>2</v>
       </c>
       <c r="C14">
-        <v>11830</v>
+        <v>9245</v>
       </c>
       <c r="D14">
-        <v>8587</v>
+        <v>6362</v>
       </c>
       <c r="E14">
-        <v>6413</v>
+        <v>3569</v>
       </c>
       <c r="F14">
-        <v>5699</v>
+        <v>3466</v>
       </c>
       <c r="I14">
         <v>8567</v>
@@ -940,16 +962,16 @@
         <v>3</v>
       </c>
       <c r="C15">
-        <v>10817</v>
+        <v>6891</v>
       </c>
       <c r="D15">
-        <v>8991</v>
+        <v>4147</v>
       </c>
       <c r="E15">
-        <v>7680</v>
+        <v>4153</v>
       </c>
       <c r="F15">
-        <v>8498</v>
+        <v>6150</v>
       </c>
       <c r="I15">
         <v>6331</v>
@@ -970,16 +992,16 @@
         <v>4</v>
       </c>
       <c r="C16">
-        <v>12809</v>
+        <v>10052</v>
       </c>
       <c r="D16">
-        <v>9482</v>
+        <v>5622</v>
       </c>
       <c r="E16">
-        <v>8002</v>
+        <v>3442</v>
       </c>
       <c r="F16">
-        <v>7159</v>
+        <v>3638</v>
       </c>
       <c r="I16">
         <v>9478</v>
@@ -1000,16 +1022,16 @@
         <v>5</v>
       </c>
       <c r="C17">
-        <v>6222</v>
+        <v>4437</v>
       </c>
       <c r="D17">
-        <v>5036</v>
+        <v>2998</v>
       </c>
       <c r="E17">
-        <v>4863</v>
+        <v>2525</v>
       </c>
       <c r="F17">
-        <v>4998</v>
+        <v>3095</v>
       </c>
       <c r="I17">
         <v>4340</v>
@@ -1030,16 +1052,16 @@
         <v>6</v>
       </c>
       <c r="C18">
-        <v>11569</v>
+        <v>7052</v>
       </c>
       <c r="D18">
-        <v>9695</v>
+        <v>3811</v>
       </c>
       <c r="E18">
-        <v>7754</v>
+        <v>3373</v>
       </c>
       <c r="F18">
-        <v>8058</v>
+        <v>4527</v>
       </c>
       <c r="I18">
         <v>6766</v>
@@ -1060,16 +1082,16 @@
         <v>7</v>
       </c>
       <c r="C19">
-        <v>13972</v>
+        <v>12102</v>
       </c>
       <c r="D19">
-        <v>10180</v>
+        <v>6787</v>
       </c>
       <c r="E19">
-        <v>8664</v>
+        <v>4427</v>
       </c>
       <c r="F19">
-        <v>7685</v>
+        <v>4816</v>
       </c>
       <c r="I19">
         <v>11101</v>
@@ -1090,16 +1112,16 @@
         <v>8</v>
       </c>
       <c r="C20">
-        <v>7011</v>
+        <v>4491</v>
       </c>
       <c r="D20">
-        <v>6343</v>
+        <v>2363</v>
       </c>
       <c r="E20">
-        <v>5551</v>
+        <v>1935</v>
       </c>
       <c r="F20">
-        <v>5156</v>
+        <v>2838</v>
       </c>
       <c r="I20">
         <v>4203</v>
@@ -1120,16 +1142,16 @@
         <v>9</v>
       </c>
       <c r="C21">
-        <v>5054</v>
+        <v>3633</v>
       </c>
       <c r="D21">
-        <v>4330</v>
+        <v>2193</v>
       </c>
       <c r="E21">
-        <v>3955</v>
+        <v>2362</v>
       </c>
       <c r="F21">
-        <v>4213</v>
+        <v>2900</v>
       </c>
       <c r="I21">
         <v>3530</v>
@@ -1150,16 +1172,16 @@
         <v>10</v>
       </c>
       <c r="C22">
-        <v>7819</v>
+        <v>5867</v>
       </c>
       <c r="D22">
-        <v>6992</v>
+        <v>3956</v>
       </c>
       <c r="E22">
-        <v>5149</v>
+        <v>2316</v>
       </c>
       <c r="F22">
-        <v>5236</v>
+        <v>2757</v>
       </c>
       <c r="I22">
         <v>5545</v>
@@ -1182,16 +1204,16 @@
         <v>1</v>
       </c>
       <c r="C23">
-        <v>57260</v>
+        <v>44612</v>
       </c>
       <c r="D23">
-        <v>43612</v>
+        <v>25081</v>
       </c>
       <c r="E23">
-        <v>36127</v>
+        <v>18321</v>
       </c>
       <c r="F23">
-        <v>34560</v>
+        <v>22071</v>
       </c>
       <c r="I23">
         <v>42363</v>
@@ -1212,16 +1234,16 @@
         <v>2</v>
       </c>
       <c r="C24">
-        <v>47996</v>
+        <v>34545</v>
       </c>
       <c r="D24">
-        <v>36336</v>
+        <v>19969</v>
       </c>
       <c r="E24">
-        <v>30767</v>
+        <v>14460</v>
       </c>
       <c r="F24">
-        <v>30607</v>
+        <v>19665</v>
       </c>
       <c r="I24">
         <v>33637</v>
@@ -1242,16 +1264,16 @@
         <v>3</v>
       </c>
       <c r="C25">
-        <v>52851</v>
+        <v>38753</v>
       </c>
       <c r="D25">
-        <v>43533</v>
+        <v>21905</v>
       </c>
       <c r="E25">
-        <v>38516</v>
+        <v>16772</v>
       </c>
       <c r="F25">
-        <v>39270</v>
+        <v>23965</v>
       </c>
       <c r="I25">
         <v>37641</v>
@@ -1272,16 +1294,16 @@
         <v>4</v>
       </c>
       <c r="C26">
-        <v>45668</v>
+        <v>30468</v>
       </c>
       <c r="D26">
-        <v>37716</v>
+        <v>18423</v>
       </c>
       <c r="E26">
-        <v>30540</v>
+        <v>14966</v>
       </c>
       <c r="F26">
-        <v>31562</v>
+        <v>22298</v>
       </c>
       <c r="I26">
         <v>30166</v>
@@ -1302,16 +1324,16 @@
         <v>5</v>
       </c>
       <c r="C27">
-        <v>53605</v>
+        <v>33295</v>
       </c>
       <c r="D27">
-        <v>44988</v>
+        <v>19640</v>
       </c>
       <c r="E27">
-        <v>40189</v>
+        <v>15039</v>
       </c>
       <c r="F27">
-        <v>40007</v>
+        <v>21997</v>
       </c>
       <c r="I27">
         <v>32604</v>
@@ -1332,16 +1354,16 @@
         <v>6</v>
       </c>
       <c r="C28">
-        <v>52141</v>
+        <v>39906</v>
       </c>
       <c r="D28">
-        <v>39536</v>
+        <v>24203</v>
       </c>
       <c r="E28">
-        <v>36023</v>
+        <v>14657</v>
       </c>
       <c r="F28">
-        <v>32753</v>
+        <v>19204</v>
       </c>
       <c r="I28">
         <v>36920</v>
@@ -1362,16 +1384,16 @@
         <v>7</v>
       </c>
       <c r="C29">
-        <v>69807</v>
+        <v>44794</v>
       </c>
       <c r="D29">
-        <v>54808.000000000007</v>
+        <v>25011</v>
       </c>
       <c r="E29">
-        <v>45881</v>
+        <v>18311</v>
       </c>
       <c r="F29">
-        <v>43803</v>
+        <v>24770</v>
       </c>
       <c r="I29">
         <v>44277</v>
@@ -1392,16 +1414,16 @@
         <v>8</v>
       </c>
       <c r="C30">
-        <v>76175</v>
+        <v>47249</v>
       </c>
       <c r="D30">
-        <v>59197</v>
+        <v>26639</v>
       </c>
       <c r="E30">
-        <v>49236</v>
+        <v>22658</v>
       </c>
       <c r="F30">
-        <v>48892</v>
+        <v>32418</v>
       </c>
       <c r="I30">
         <v>46065</v>
@@ -1422,16 +1444,16 @@
         <v>9</v>
       </c>
       <c r="C31">
-        <v>46279</v>
+        <v>37853</v>
       </c>
       <c r="D31">
-        <v>34852</v>
+        <v>22378</v>
       </c>
       <c r="E31">
-        <v>28986</v>
+        <v>14442</v>
       </c>
       <c r="F31">
-        <v>27321</v>
+        <v>16590</v>
       </c>
       <c r="I31">
         <v>36397</v>
@@ -1452,16 +1474,16 @@
         <v>10</v>
       </c>
       <c r="C32">
-        <v>49278</v>
+        <v>37185</v>
       </c>
       <c r="D32">
-        <v>38218</v>
+        <v>21273</v>
       </c>
       <c r="E32">
-        <v>32595</v>
+        <v>14701</v>
       </c>
       <c r="F32">
-        <v>33519</v>
+        <v>19525</v>
       </c>
       <c r="I32">
         <v>35797</v>
@@ -1484,16 +1506,16 @@
         <v>1</v>
       </c>
       <c r="C33">
-        <v>228597</v>
+        <v>157634</v>
       </c>
       <c r="D33">
-        <v>194276</v>
+        <v>89950</v>
       </c>
       <c r="E33">
-        <v>159859</v>
+        <v>74461</v>
       </c>
       <c r="F33">
-        <v>163429</v>
+        <v>109534</v>
       </c>
       <c r="I33">
         <v>156103</v>
@@ -1514,16 +1536,16 @@
         <v>2</v>
       </c>
       <c r="C34">
-        <v>198738</v>
+        <v>133137</v>
       </c>
       <c r="D34">
-        <v>166787</v>
+        <v>75204</v>
       </c>
       <c r="E34">
-        <v>136845</v>
+        <v>61572</v>
       </c>
       <c r="F34">
-        <v>132649</v>
+        <v>84708</v>
       </c>
       <c r="I34">
         <v>132605</v>
@@ -1544,16 +1566,16 @@
         <v>3</v>
       </c>
       <c r="C35">
-        <v>192895</v>
+        <v>137988</v>
       </c>
       <c r="D35">
-        <v>159479</v>
+        <v>85678</v>
       </c>
       <c r="E35">
-        <v>142354</v>
+        <v>70361</v>
       </c>
       <c r="F35">
-        <v>151653</v>
+        <v>101232</v>
       </c>
       <c r="I35">
         <v>137463</v>
@@ -1574,16 +1596,16 @@
         <v>4</v>
       </c>
       <c r="C36">
-        <v>198683</v>
+        <v>139137</v>
       </c>
       <c r="D36">
-        <v>155035</v>
+        <v>88520</v>
       </c>
       <c r="E36">
-        <v>132322</v>
+        <v>69845</v>
       </c>
       <c r="F36">
-        <v>141017</v>
+        <v>93267</v>
       </c>
       <c r="I36">
         <v>137265</v>
@@ -1604,16 +1626,16 @@
         <v>5</v>
       </c>
       <c r="C37">
-        <v>196473</v>
+        <v>138585</v>
       </c>
       <c r="D37">
-        <v>149263</v>
+        <v>76812</v>
       </c>
       <c r="E37">
-        <v>127237</v>
+        <v>55503</v>
       </c>
       <c r="F37">
-        <v>123549</v>
+        <v>74503</v>
       </c>
       <c r="I37">
         <v>136761</v>
@@ -1634,16 +1656,16 @@
         <v>6</v>
       </c>
       <c r="C38">
-        <v>230893</v>
+        <v>158147</v>
       </c>
       <c r="D38">
-        <v>176604</v>
+        <v>87542.999999999985</v>
       </c>
       <c r="E38">
-        <v>143960</v>
+        <v>62957</v>
       </c>
       <c r="F38">
-        <v>138470</v>
+        <v>88581</v>
       </c>
       <c r="I38">
         <v>151938</v>
@@ -1664,16 +1686,16 @@
         <v>7</v>
       </c>
       <c r="C39">
-        <v>195609</v>
+        <v>142187</v>
       </c>
       <c r="D39">
-        <v>151776</v>
+        <v>81682</v>
       </c>
       <c r="E39">
-        <v>131544</v>
+        <v>62420</v>
       </c>
       <c r="F39">
-        <v>129813</v>
+        <v>79412</v>
       </c>
       <c r="I39">
         <v>141613</v>
@@ -1694,16 +1716,16 @@
         <v>8</v>
       </c>
       <c r="C40">
-        <v>258036</v>
+        <v>172849</v>
       </c>
       <c r="D40">
-        <v>212303</v>
+        <v>96252</v>
       </c>
       <c r="E40">
-        <v>185299</v>
+        <v>85084</v>
       </c>
       <c r="F40">
-        <v>193403</v>
+        <v>128058</v>
       </c>
       <c r="I40">
         <v>168086</v>
@@ -1724,16 +1746,16 @@
         <v>9</v>
       </c>
       <c r="C41">
-        <v>201779</v>
+        <v>125690</v>
       </c>
       <c r="D41">
-        <v>160096</v>
+        <v>73780</v>
       </c>
       <c r="E41">
-        <v>141190</v>
+        <v>60698</v>
       </c>
       <c r="F41">
-        <v>145867</v>
+        <v>94486</v>
       </c>
       <c r="I41">
         <v>125153</v>
@@ -1754,16 +1776,16 @@
         <v>10</v>
       </c>
       <c r="C42">
-        <v>183007</v>
+        <v>124959</v>
       </c>
       <c r="D42">
-        <v>146328</v>
+        <v>74059</v>
       </c>
       <c r="E42">
-        <v>132035</v>
+        <v>63078</v>
       </c>
       <c r="F42">
-        <v>145069</v>
+        <v>92294</v>
       </c>
       <c r="I42">
         <v>124446</v>
@@ -1786,16 +1808,16 @@
         <v>1</v>
       </c>
       <c r="C43">
-        <v>791667</v>
+        <v>533656</v>
       </c>
       <c r="D43">
-        <v>636003</v>
+        <v>302921</v>
       </c>
       <c r="E43">
-        <v>556404</v>
+        <v>262255</v>
       </c>
       <c r="F43">
-        <v>575161</v>
+        <v>387892</v>
       </c>
       <c r="I43">
         <v>526666</v>
@@ -1816,16 +1838,16 @@
         <v>2</v>
       </c>
       <c r="C44">
-        <v>895073</v>
+        <v>581265</v>
       </c>
       <c r="D44">
-        <v>690419</v>
+        <v>338205</v>
       </c>
       <c r="E44">
-        <v>584057</v>
+        <v>270890</v>
       </c>
       <c r="F44">
-        <v>598248</v>
+        <v>412974</v>
       </c>
       <c r="I44">
         <v>566643</v>
@@ -1846,16 +1868,16 @@
         <v>3</v>
       </c>
       <c r="C45">
-        <v>784071</v>
+        <v>531288</v>
       </c>
       <c r="D45">
-        <v>598928</v>
+        <v>309004</v>
       </c>
       <c r="E45">
-        <v>530727</v>
+        <v>256590</v>
       </c>
       <c r="F45">
-        <v>564862</v>
+        <v>380304</v>
       </c>
       <c r="I45">
         <v>529919</v>
@@ -1876,16 +1898,16 @@
         <v>4</v>
       </c>
       <c r="C46">
-        <v>875520</v>
+        <v>604834</v>
       </c>
       <c r="D46">
-        <v>683854</v>
+        <v>361565</v>
       </c>
       <c r="E46">
-        <v>606342</v>
+        <v>299534</v>
       </c>
       <c r="F46">
-        <v>624906</v>
+        <v>418896</v>
       </c>
       <c r="I46">
         <v>603709</v>
@@ -1906,16 +1928,16 @@
         <v>5</v>
       </c>
       <c r="C47">
-        <v>813208</v>
+        <v>553418</v>
       </c>
       <c r="D47">
-        <v>665229</v>
+        <v>323043</v>
       </c>
       <c r="E47">
-        <v>573844</v>
+        <v>271830</v>
       </c>
       <c r="F47">
-        <v>598688</v>
+        <v>400598</v>
       </c>
       <c r="I47">
         <v>547953</v>
@@ -1936,16 +1958,16 @@
         <v>6</v>
       </c>
       <c r="C48">
-        <v>808625</v>
+        <v>503399</v>
       </c>
       <c r="D48">
-        <v>640829</v>
+        <v>293234</v>
       </c>
       <c r="E48">
-        <v>550142</v>
+        <v>243048</v>
       </c>
       <c r="F48">
-        <v>573538</v>
+        <v>374621</v>
       </c>
       <c r="I48">
         <v>502276</v>
@@ -1966,16 +1988,16 @@
         <v>7</v>
       </c>
       <c r="C49">
-        <v>763438</v>
+        <v>483818</v>
       </c>
       <c r="D49">
-        <v>632433</v>
+        <v>281236</v>
       </c>
       <c r="E49">
-        <v>525180</v>
+        <v>262226</v>
       </c>
       <c r="F49">
-        <v>549289</v>
+        <v>388002</v>
       </c>
       <c r="I49">
         <v>479651</v>
@@ -1996,16 +2018,16 @@
         <v>8</v>
       </c>
       <c r="C50">
-        <v>800267</v>
+        <v>531355</v>
       </c>
       <c r="D50">
-        <v>653746</v>
+        <v>294723</v>
       </c>
       <c r="E50">
-        <v>540232</v>
+        <v>228749</v>
       </c>
       <c r="F50">
-        <v>541771</v>
+        <v>325729</v>
       </c>
       <c r="I50">
         <v>530896</v>
@@ -2026,16 +2048,16 @@
         <v>9</v>
       </c>
       <c r="C51">
-        <v>827932</v>
+        <v>587866</v>
       </c>
       <c r="D51">
-        <v>648588</v>
+        <v>332414</v>
       </c>
       <c r="E51">
-        <v>553228</v>
+        <v>256607</v>
       </c>
       <c r="F51">
-        <v>580698</v>
+        <v>360922</v>
       </c>
       <c r="I51">
         <v>575353</v>
@@ -2056,16 +2078,16 @@
         <v>10</v>
       </c>
       <c r="C52">
-        <v>789316</v>
+        <v>577549</v>
       </c>
       <c r="D52">
-        <v>615103</v>
+        <v>334231</v>
       </c>
       <c r="E52">
-        <v>523978</v>
+        <v>270164</v>
       </c>
       <c r="F52">
-        <v>545800</v>
+        <v>350579</v>
       </c>
       <c r="I52">
         <v>572866</v>
@@ -2088,16 +2110,16 @@
         <v>1</v>
       </c>
       <c r="C53">
-        <v>4817265</v>
+        <v>3147506</v>
       </c>
       <c r="D53">
-        <v>3930429</v>
+        <v>1841757</v>
       </c>
       <c r="E53">
-        <v>3471120</v>
+        <v>1650707</v>
       </c>
       <c r="F53">
-        <v>3715328</v>
+        <v>2483867</v>
       </c>
       <c r="I53">
         <v>3113088</v>
@@ -2118,16 +2140,16 @@
         <v>2</v>
       </c>
       <c r="C54">
-        <v>5336424</v>
+        <v>3582874</v>
       </c>
       <c r="D54">
-        <v>4333296</v>
+        <v>2066871</v>
       </c>
       <c r="E54">
-        <v>3737361</v>
+        <v>1768006</v>
       </c>
       <c r="F54">
-        <v>3896793</v>
+        <v>2555800</v>
       </c>
       <c r="I54">
         <v>3569058</v>
@@ -2148,16 +2170,16 @@
         <v>3</v>
       </c>
       <c r="C55">
-        <v>5032146</v>
+        <v>3303580</v>
       </c>
       <c r="D55">
-        <v>4124986</v>
+        <v>1913419</v>
       </c>
       <c r="E55">
-        <v>3608804</v>
+        <v>1722442</v>
       </c>
       <c r="F55">
-        <v>3855179</v>
+        <v>2579636</v>
       </c>
       <c r="I55">
         <v>3300744</v>
@@ -2178,16 +2200,16 @@
         <v>4</v>
       </c>
       <c r="C56">
-        <v>5308698</v>
+        <v>3411682</v>
       </c>
       <c r="D56">
-        <v>4293859</v>
+        <v>1934129</v>
       </c>
       <c r="E56">
-        <v>3715573</v>
+        <v>1703173</v>
       </c>
       <c r="F56">
-        <v>3844341</v>
+        <v>2559577</v>
       </c>
       <c r="I56">
         <v>3408867</v>
@@ -2208,16 +2230,16 @@
         <v>5</v>
       </c>
       <c r="C57">
-        <v>4969368</v>
+        <v>3391633</v>
       </c>
       <c r="D57">
-        <v>3881041</v>
+        <v>1907944</v>
       </c>
       <c r="E57">
-        <v>3358891</v>
+        <v>1479830</v>
       </c>
       <c r="F57">
-        <v>3426478</v>
+        <v>2186486</v>
       </c>
       <c r="I57">
         <v>3377547</v>
@@ -2238,16 +2260,16 @@
         <v>6</v>
       </c>
       <c r="C58">
-        <v>4671919</v>
+        <v>3026882</v>
       </c>
       <c r="D58">
-        <v>3832105</v>
+        <v>1660144</v>
       </c>
       <c r="E58">
-        <v>3329276</v>
+        <v>1482359</v>
       </c>
       <c r="F58">
-        <v>3450101</v>
+        <v>2264587</v>
       </c>
       <c r="I58">
         <v>3024082</v>
@@ -2268,16 +2290,16 @@
         <v>7</v>
       </c>
       <c r="C59">
-        <v>5078314</v>
+        <v>3419773</v>
       </c>
       <c r="D59">
-        <v>4136559</v>
+        <v>1973096</v>
       </c>
       <c r="E59">
-        <v>3591406</v>
+        <v>1694339</v>
       </c>
       <c r="F59">
-        <v>3795022</v>
+        <v>2528168</v>
       </c>
       <c r="I59">
         <v>3381166</v>
@@ -2298,16 +2320,16 @@
         <v>8</v>
       </c>
       <c r="C60">
-        <v>5176333</v>
+        <v>3382362</v>
       </c>
       <c r="D60">
-        <v>4122422</v>
+        <v>1938994</v>
       </c>
       <c r="E60">
-        <v>3463840</v>
+        <v>1579378</v>
       </c>
       <c r="F60">
-        <v>3512218</v>
+        <v>2347319</v>
       </c>
       <c r="I60">
         <v>3376678</v>
@@ -2328,16 +2350,16 @@
         <v>9</v>
       </c>
       <c r="C61">
-        <v>5342123</v>
+        <v>3620749</v>
       </c>
       <c r="D61">
-        <v>4332956</v>
+        <v>2067517</v>
       </c>
       <c r="E61">
-        <v>3761066</v>
+        <v>1723893</v>
       </c>
       <c r="F61">
-        <v>3967066</v>
+        <v>2556030</v>
       </c>
       <c r="I61">
         <v>3617807</v>
@@ -2358,16 +2380,16 @@
         <v>10</v>
       </c>
       <c r="C62">
-        <v>5024909</v>
+        <v>3333824</v>
       </c>
       <c r="D62">
-        <v>3957141</v>
+        <v>1961485</v>
       </c>
       <c r="E62">
-        <v>3428055</v>
+        <v>1531605</v>
       </c>
       <c r="F62">
-        <v>3498833</v>
+        <v>2276029</v>
       </c>
       <c r="I62">
         <v>3315019</v>
@@ -2390,16 +2412,16 @@
         <v>1</v>
       </c>
       <c r="C63">
-        <v>21753313</v>
+        <v>15220405</v>
       </c>
       <c r="D63">
-        <v>16735887</v>
+        <v>8697740</v>
       </c>
       <c r="E63">
-        <v>14173998</v>
+        <v>6424101</v>
       </c>
       <c r="F63">
-        <v>14267891</v>
+        <v>8955572</v>
       </c>
       <c r="I63">
         <v>15190371</v>
@@ -2420,16 +2442,16 @@
         <v>2</v>
       </c>
       <c r="C64">
-        <v>19311529</v>
+        <v>13380595</v>
       </c>
       <c r="D64">
-        <v>15295698</v>
+        <v>7600578</v>
       </c>
       <c r="E64">
-        <v>13152872</v>
+        <v>6189354</v>
       </c>
       <c r="F64">
-        <v>13631979</v>
+        <v>8949276</v>
       </c>
       <c r="I64">
         <v>13356727</v>
@@ -2450,16 +2472,16 @@
         <v>3</v>
       </c>
       <c r="C65">
-        <v>19744795</v>
+        <v>12959774</v>
       </c>
       <c r="D65">
-        <v>15901956</v>
+        <v>7323621</v>
       </c>
       <c r="E65">
-        <v>13848370</v>
+        <v>6142502</v>
       </c>
       <c r="F65">
-        <v>14483387</v>
+        <v>9272692</v>
       </c>
       <c r="I65">
         <v>12919259</v>
@@ -2480,16 +2502,16 @@
         <v>4</v>
       </c>
       <c r="C66">
-        <v>19159269</v>
+        <v>12731498</v>
       </c>
       <c r="D66">
-        <v>15645647</v>
+        <v>7310051</v>
       </c>
       <c r="E66">
-        <v>13455708</v>
+        <v>6306286</v>
       </c>
       <c r="F66">
-        <v>14080770</v>
+        <v>9280530</v>
       </c>
       <c r="I66">
         <v>12705290</v>
@@ -2510,16 +2532,16 @@
         <v>5</v>
       </c>
       <c r="C67">
-        <v>20337728</v>
+        <v>13517700</v>
       </c>
       <c r="D67">
-        <v>16461809</v>
+        <v>7755645</v>
       </c>
       <c r="E67">
-        <v>14233241</v>
+        <v>6564921</v>
       </c>
       <c r="F67">
-        <v>14929279</v>
+        <v>9758436</v>
       </c>
       <c r="I67">
         <v>13276868</v>
@@ -2540,16 +2562,16 @@
         <v>6</v>
       </c>
       <c r="C68">
-        <v>19263489</v>
+        <v>12338164</v>
       </c>
       <c r="D68">
-        <v>15892354</v>
+        <v>7175950</v>
       </c>
       <c r="E68">
-        <v>13816539</v>
+        <v>6349308</v>
       </c>
       <c r="F68">
-        <v>14427679</v>
+        <v>9632737</v>
       </c>
       <c r="I68">
         <v>12236080</v>
@@ -2570,16 +2592,16 @@
         <v>7</v>
       </c>
       <c r="C69">
-        <v>21053804</v>
+        <v>14172054</v>
       </c>
       <c r="D69">
-        <v>16187510</v>
+        <v>8433131</v>
       </c>
       <c r="E69">
-        <v>13995894</v>
+        <v>6621433</v>
       </c>
       <c r="F69">
-        <v>14523604</v>
+        <v>9536249</v>
       </c>
       <c r="I69">
         <v>14160773</v>
@@ -2600,16 +2622,16 @@
         <v>8</v>
       </c>
       <c r="C70">
-        <v>19894796</v>
+        <v>13358300</v>
       </c>
       <c r="D70">
-        <v>15817871</v>
+        <v>7514147</v>
       </c>
       <c r="E70">
-        <v>13443085</v>
+        <v>6204764</v>
       </c>
       <c r="F70">
-        <v>13910436</v>
+        <v>9229338</v>
       </c>
       <c r="I70">
         <v>13314723</v>
@@ -2630,16 +2652,16 @@
         <v>9</v>
       </c>
       <c r="C71">
-        <v>19045118</v>
+        <v>12547617</v>
       </c>
       <c r="D71">
-        <v>15079814</v>
+        <v>7327130</v>
       </c>
       <c r="E71">
-        <v>13174851</v>
+        <v>6333852</v>
       </c>
       <c r="F71">
-        <v>13865212</v>
+        <v>9344222</v>
       </c>
       <c r="I71">
         <v>12433821</v>
@@ -2660,16 +2682,16 @@
         <v>10</v>
       </c>
       <c r="C72">
-        <v>20291575</v>
+        <v>13401035</v>
       </c>
       <c r="D72">
-        <v>16243343</v>
+        <v>7622295</v>
       </c>
       <c r="E72">
-        <v>13861379</v>
+        <v>6307418</v>
       </c>
       <c r="F72">
-        <v>14354401</v>
+        <v>9312300</v>
       </c>
       <c r="I72">
         <v>13395234</v>
@@ -2696,7 +2718,13 @@
     <mergeCell ref="A43:A52"/>
     <mergeCell ref="A53:A62"/>
   </mergeCells>
+  <conditionalFormatting sqref="C3:F72">
+    <cfRule type="expression" dxfId="2" priority="2">
+      <formula>C3&lt;=I3</formula>
+    </cfRule>
+  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
